--- a/mbs-perturbation/chain/randomForest/smote/chain-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/chain/randomForest/smote/chain-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9153225806451613</v>
+        <v>0.6482758620689655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9497907949790794</v>
+        <v>0.7704918032786886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9752023338979861</v>
+        <v>0.8550658096112642</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9879349046015713</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9835164835164835</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9040404040404041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9421052631578947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.989413988657845</v>
+        <v>0.9910468319559229</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9543568464730291</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9766454352441614</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8730964467005076</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9322493224932249</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9998205404296776</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9672131963480078</v>
+        <v>0.9132271559857766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9973913043478261</v>
+        <v>0.9099728246936369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9818684426258446</v>
+        <v>0.9040732587722955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9929232645111663</v>
+        <v>0.9667736173196871</v>
       </c>
     </row>
   </sheetData>
